--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asif/Pets/awsconnectdashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{A383EEA2-33D5-F44E-B090-2C3594645C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097CE301-FE11-304C-9C9D-F4F7CD6ACE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CloudCall_CDR-2023-1-21" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -993,12 +993,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="A1:U10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1604,10 +1604,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T10">
-    <filterColumn colId="3">
+  <autoFilter ref="A1:T10" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="9">
       <filters>
-        <filter val="a2ccc65f-9b21-4190-9117-d84eb8c3273e"/>
+        <filter val="1674218716"/>
+        <filter val="1674219769"/>
+        <filter val="1674221328"/>
+        <filter val="1674223208"/>
       </filters>
     </filterColumn>
   </autoFilter>
